--- a/data/tweets/#NCT127/#NCT127_11042022.xlsx
+++ b/data/tweets/#NCT127/#NCT127_11042022.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>khansaafiyaa</t>
+          <t>slayharrrd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -501,11 +501,11 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44662.00517361111</v>
+        <v>44662.91055555556</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LOVE THEORY 14042022 TAEYONG X WONSTEINTAEYONG Wonstein LoveTheory NCT NCT127</t>
+          <t>NCT FC NCT</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -516,12 +516,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513202008979050496</t>
+          <t>https://twitter.com/twitter/statuses/1513530106358435841</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>heyimaroha</t>
+          <t>KPOP_JUICE_EN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,11 +542,11 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44662.0037037037</v>
+        <v>44662.91015046297</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WTB PC jaehyun suhum jh tour bus jh neo city NCT JAEHYUN</t>
+          <t>410Kpop Group Ranking on Twitter11 JO112 LESSERAFIM13 SHINee14 NCT12715 NCTDREAM</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -557,12 +557,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513201474750214145</t>
+          <t>https://twitter.com/twitter/statuses/1513529960463429634</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ploy_shop127</t>
+          <t>gabutdoangqaqa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -583,27 +583,27 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44662.00364583333</v>
+        <v>44662.90951388889</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DICONราคา฿รวมส่งมีวงSeventeenNctBTSสนใจทัก DMมาเลย จ้าชำระเงินผ่อน เสร็จ สั่งเลยจ่าย เต็ม</t>
+          <t>Nyatanya berharap pada manusia adalah hal bodoh yang disengajadoyoungdoyoung doyoungnct NCT nct nctzen</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513201456114900994</t>
+          <t>https://twitter.com/twitter/statuses/1513529728929775618</t>
         </is>
       </c>
     </row>
@@ -615,20 +615,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rj_baobei</t>
+          <t>theppcm_</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>she/her | interactive</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44662.00260416666</v>
+        <v>44662.90763888889</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT NEO ZONE THE FINAL ROUNDST PLAYER VER ND PLAYER VER บั้มไม่แกะ ไม่มีโปสเตอร์บั้มละ ฿KIH</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513201079487541253</t>
+          <t>https://twitter.com/twitter/statuses/1513529050270081030</t>
         </is>
       </c>
     </row>
@@ -656,20 +656,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ploy_shop127</t>
+          <t>in_kyung0213</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44662.00108796296</v>
+        <v>44662.90754629629</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>พรีGLITCH MODE glitch Ver photo book posterราคา ฿แบบ อัลบั้ม เลือกปกได้ ไม่มี posterราคา ฿ค่าส่ง</t>
+          <t>Dmnct Wayv nct nctdream</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513200530209710082</t>
+          <t>https://twitter.com/twitter/statuses/1513529019794624512</t>
         </is>
       </c>
     </row>
@@ -697,20 +697,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>anakbapakibu___</t>
+          <t>jwle66</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>そうぉん、しずに</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44662.00012731482</v>
+        <v>44662.90744212963</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DOYOUNG NCT NCT NCT</t>
+          <t>NCT FC</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513200180174401536</t>
+          <t>https://twitter.com/twitter/statuses/1513528981210902529</t>
         </is>
       </c>
     </row>
@@ -738,27 +738,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jsuhjpgs</t>
+          <t>in_kyung0213</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ctto. </t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44662.00002314815</v>
+        <v>44662.90728009259</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JOHNNY NCT</t>
+          <t>DMnct nct</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513200141674688519</t>
+          <t>https://twitter.com/twitter/statuses/1513528922469990404</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kdyhours</t>
+          <t>theppcm_</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>도영</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44662.00001157408</v>
+        <v>44662.90694444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DOYOUNG NCT</t>
+          <t>NCT NEO ZONE KIHNO VERบั้มไม่แกะ ของครบ ไม่มีโปสเตอร์ราคาบั้มละ ฿ค่าส่ง ฿ บั้มถัดไป</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513200138000519172</t>
+          <t>https://twitter.com/twitter/statuses/1513528798762909700</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tyonghourly</t>
+          <t>2kimtae_tae9597</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>all credits to original owners</t>
+          <t>ยกเลิก=ไม่คืนเงินทุกกรณี</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44662</v>
+        <v>44662.90587962963</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TAEYONG NCT NCT NCT SUPERM</t>
+          <t>พร้อมส่ง ส่งต่อ การ์ด ssgt จอห์นนี่ johnny ฿฿ ใส่กล่องดูเพิ่มเติม dm ตลาดนัดอซท</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513200133692870661</t>
+          <t>https://twitter.com/twitter/statuses/1513528414225178625</t>
         </is>
       </c>
     </row>
@@ -861,20 +861,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jknbuys_</t>
+          <t>theppcm_</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>metro manila</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44661.99902777778</v>
+        <v>44662.90555555555</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT NEO ZONEบั้มไม่แกะ ของครบT VER บั้มละ ฿ค่าจัดส่ง ฿ บั้มถัดไปพร้อมส่ง ส่งของจันทร์</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -890,7 +890,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513199780398174213</t>
+          <t>https://twitter.com/twitter/statuses/1513528295375089670</t>
         </is>
       </c>
     </row>
@@ -902,20 +902,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tan_nat_toissho</t>
+          <t>thisstarshop_1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SAITAMA</t>
+          <t>ช่องทางติดต่อสั่งซื้ออื่นๆ</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44661.99821759259</v>
+        <v>44662.90519675926</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NCT NCT</t>
+          <t>NCTพร้อมส่งไม่แกะบั้มkihnoสั่งซื้อ NCT LimitlessRegularIrregularWe Ar</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513199488315232256</t>
+          <t>https://twitter.com/twitter/statuses/1513528164982849540</t>
         </is>
       </c>
     </row>
@@ -943,27 +943,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UNiniyeon</t>
+          <t>thisstarshop_1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>she l home=twice 일상이 좋지 않을 수 있</t>
+          <t>ช่องทางติดต่อสั่งซื้ออื่นๆ</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44661.99803240741</v>
+        <v>44662.9040625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>First time kong manood ng UAAP di ko inaasahang mag kaka boyfriend pa ako ng anim grabe naman yun Lord</t>
+          <t>NCT127 Sticker StickySeoul CitySticker Ver Fa</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513199419448995841</t>
+          <t>https://twitter.com/twitter/statuses/1513527753362243585</t>
         </is>
       </c>
     </row>
@@ -984,24 +984,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT127_PH</t>
+          <t>in_kyung0213</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44661.99747685185</v>
+        <v>44662.90391203704</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VOTE Vote TAEIL and HAECHAN in the Voting Event for Idols born in June Vote via the FanPlus App Link</t>
+          <t>DM nct nct nctdream</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513199221653999617</t>
+          <t>https://twitter.com/twitter/statuses/1513527702539878401</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>yuwinjaeyu127</t>
+          <t>kidaryosso_</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1034,11 +1034,11 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44661.99699074074</v>
+        <v>44662.90340277777</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NCT NCT NCT NCT</t>
+          <t>NCT ND TOUR NEO CITYJAPAN THE LINKJAPANFC DMnct</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513199042322649088</t>
+          <t>https://twitter.com/twitter/statuses/1513527517688532998</t>
         </is>
       </c>
     </row>
@@ -1066,24 +1066,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mahaesbasket</t>
+          <t>nrnkttj65</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-🗯️ he they . . 7teen ! 
-for nct — jaemahae 🎱
-𓂃𓄹𓈒 slow spark collector 
-</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44661.9967824074</v>
+        <v>44662.90340277777</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT ND TOUR 'NEO CITY JAPAN THE LINK' FC</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1099,7 +1095,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513198967407865856</t>
+          <t>https://twitter.com/twitter/statuses/1513527517646573576</t>
         </is>
       </c>
     </row>
@@ -1111,27 +1107,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tan_nat_toissho</t>
+          <t>marronmaman2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SAITAMA</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44661.9965162037</v>
+        <v>44662.90171296296</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NCT NCT NCT NCT YUTA</t>
+          <t>NCT NCT NCT NCT</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1140,7 +1136,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513198870385233920</t>
+          <t>https://twitter.com/twitter/statuses/1513526902321221639</t>
         </is>
       </c>
     </row>
@@ -1152,20 +1148,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hursheycart</t>
+          <t>J1nIc</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+63 : HE | HIM</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44661.99600694444</v>
+        <v>44662.9016087963</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT ND TOUR NEO CITYJAPAN THE LINKNCTzen JAPAN</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1181,7 +1177,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513198686578229251</t>
+          <t>https://twitter.com/twitter/statuses/1513526865972981767</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1189,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nctT3T</t>
+          <t>Anna14519403</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1202,11 +1198,11 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44661.99555555556</v>
+        <v>44662.900625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>doyoung nct</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1222,7 +1218,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513198522694537216</t>
+          <t>https://twitter.com/twitter/statuses/1513526510099046409</t>
         </is>
       </c>
     </row>
@@ -1234,16 +1230,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mainmakii</t>
+          <t>njaemails</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>multi</t>
+          <t xml:space="preserve">vv slow collector ! she%her </t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44661.99521990741</v>
+        <v>44662.89976851852</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1263,7 +1259,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513198403169419264</t>
+          <t>https://twitter.com/twitter/statuses/1513526200022417418</t>
         </is>
       </c>
     </row>
@@ -1275,20 +1271,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>701doII</t>
+          <t>momochipepero</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>her (18)</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44661.99517361111</v>
+        <v>44662.89936342592</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>STATION TAEYONG X Love Theory PM KSTTAEYONG Wonstein LoveTheory NCT NCT</t>
+          <t>ornct NCTZEN NCTDREAM NCT WayV</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1304,7 +1300,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513198386219991043</t>
+          <t>https://twitter.com/twitter/statuses/1513526050990751751</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1312,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>923cart</t>
+          <t>209_archive</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1325,18 +1321,18 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44661.99429398148</v>
+        <v>44662.89876157408</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>JOHNNY NCT NCT johnyong johnmark</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1345,7 +1341,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513198064970117122</t>
+          <t>https://twitter.com/twitter/statuses/1513525836170727427</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1353,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT127_PH</t>
+          <t>BrSquad_kpop</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1366,27 +1362,27 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44661.99415509259</v>
+        <v>44662.89851851852</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VOTE Vote NCT127 members on the KPOP Idol Individual Ranking Vote via THEKKING app Voting ends April 2</t>
+          <t>CURIOSO O TAEYONG e o Wonstein divulgaram mais uma foto teaser para o lanamento do single Love TheoryTAEYONG</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513198017066651656</t>
+          <t>https://twitter.com/twitter/statuses/1513525745351544843</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1394,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UghhhDeja</t>
+          <t>209_archive</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1407,27 +1403,27 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44661.99402777778</v>
+        <v>44662.89800925926</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Captions are hard NCTzenSelcaDay JOHNNY NCT127</t>
+          <t>JOHNNY NCT NCT</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513197968454791173</t>
+          <t>https://twitter.com/twitter/statuses/1513525560303005698</t>
         </is>
       </c>
     </row>
@@ -1439,20 +1435,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>l_mcryy</t>
+          <t>1W4To_J_MuCore</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>สินค้าและบริการ</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44661.99282407408</v>
+        <v>44662.89762731481</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sticker10nct wayv 127 nct127 nctdream</t>
+          <t>List of artist win at least once in MusicCore in 2021January 2 2021 December 19 2021 Boygroup Astro</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1463,12 +1459,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513197535170797568</t>
+          <t>https://twitter.com/twitter/statuses/1513525422780461061</t>
         </is>
       </c>
     </row>
@@ -1480,20 +1476,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>___seung___</t>
+          <t>Suh_updateBr</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Brazilian Johfam 🇧🇷</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44661.99267361111</v>
+        <v>44662.89706018518</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NCT ND TOUR NEO CITY JAPAN THE LINK</t>
+          <t>IG naturerepublicId Atualizou o Instagram com johnnyNCT Photocard Special Edition Exclusive Apenas na</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1509,7 +1505,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513197479667601410</t>
+          <t>https://twitter.com/twitter/statuses/1513525219683717127</t>
         </is>
       </c>
     </row>
@@ -1521,27 +1517,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jaem_myeon</t>
+          <t>209_archive</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sokor</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44661.99097222222</v>
+        <v>44662.89706018518</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>180411 ennanarewind just knowing that someones beside you can give you strength have johnny and ma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1550,7 +1546,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513196862513487872</t>
+          <t>https://twitter.com/twitter/statuses/1513525217095680001</t>
         </is>
       </c>
     </row>
@@ -1562,20 +1558,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>_uwuncit</t>
+          <t>go5raetabkku</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>SHAPE of LOVE</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44661.98899305556</v>
+        <v>44662.89643518518</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NCTzenSelcaDay NSD JUNGWOO NCT NCT</t>
+          <t>BTS TXT</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1591,7 +1587,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513196145828597760</t>
+          <t>https://twitter.com/twitter/statuses/1513524990913945605</t>
         </is>
       </c>
     </row>
@@ -1603,20 +1599,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>neoboyzloverr</t>
+          <t>Favorite__hc</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>she/her • INFP-T</t>
+          <t>สมุทรปราการ, ประเทศไทย</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44661.98476851852</v>
+        <v>44662.89594907407</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>ปล่อการ์ดลดราคา เหลือ ใบเฉินเล่อ glitch mode ฿ ส่งฟรีแทอิล ฿ ส่งฟรีแทยง ฿ ส่งฟรีไม่มีตำหนิทุกใบ</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1627,12 +1623,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513194613787734016</t>
+          <t>https://twitter.com/twitter/statuses/1513524816669982725</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1640,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>kotomi02374052</t>
+          <t>ydghgr</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1653,18 +1649,18 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44661.98339120371</v>
+        <v>44662.89564814815</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NCT ND TOUR NEO CITY FC</t>
+          <t>NCT sell</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1673,7 +1669,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513194113767964678</t>
+          <t>https://twitter.com/twitter/statuses/1513524707995258885</t>
         </is>
       </c>
     </row>
@@ -1685,27 +1681,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>enhaneoz</t>
+          <t>in_kyung0213</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>she/her 3 owners multi</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44661.98299768518</v>
+        <v>44662.89548611111</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>nct nct nctdream wayv</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1714,7 +1710,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193970473762818</t>
+          <t>https://twitter.com/twitter/statuses/1513524648285470727</t>
         </is>
       </c>
     </row>
@@ -1726,27 +1722,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>solacenjaems</t>
+          <t>kazu11898899</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">'03| 18♡| she/her </t>
+          <t>埼玉県</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44661.98167824074</v>
+        <v>44662.89547453704</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT NCT YUTA YUTA insta</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1755,7 +1751,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193494466084865</t>
+          <t>https://twitter.com/twitter/statuses/1513524643797549058</t>
         </is>
       </c>
     </row>
@@ -1767,27 +1763,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ljae__</t>
+          <t>ydghgr</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>manifesting thesis defended 🙏</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44661.98144675926</v>
+        <v>44662.89542824074</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT sell gs or NCT NCTHAECHAN</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1796,7 +1792,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193411787952133</t>
+          <t>https://twitter.com/twitter/statuses/1513524626642534402</t>
         </is>
       </c>
     </row>
@@ -1808,24 +1804,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>_niriki</t>
+          <t>127dw</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>she / her '00</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44661.98125</v>
+        <v>44662.89472222222</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>IDOL CHAMPREMINDERStargiving Ad 8NCT DEBUT ANNIVERSARYDonate Watch 10 ads dailyCloses April 30 KSTDon</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1837,7 +1833,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193340787126272</t>
+          <t>https://twitter.com/twitter/statuses/1513524368890023938</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1845,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mssm_misosmile</t>
+          <t>Joh3y95</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1858,11 +1854,11 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44661.98094907407</v>
+        <v>44662.8937962963</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>การ์ด nature republic cica christmas ver บางใบตรงมุมมีตำหนิเล็กน้อย แทอิลแทยงยูตะจองอูแฮชาน รับธนา</t>
+          <t>JOHNNY DOYOUNG JUNGWOO NCT nct</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1873,12 +1869,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193231856861186</t>
+          <t>https://twitter.com/twitter/statuses/1513524034692173827</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1886,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mssm_misosmile</t>
+          <t>parkgingsul</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1899,18 +1895,18 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44661.98081018519</v>
+        <v>44662.89334490741</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>การ์ดโดยองแจฮยอน Card wallet AR Ticket ดูเพิ่มเติมได้ใน link DY JH</t>
+          <t>Nakamoto Yuta from NCT YUTA NCT</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1919,7 +1915,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193181248368641</t>
+          <t>https://twitter.com/twitter/statuses/1513523872989347847</t>
         </is>
       </c>
     </row>
@@ -1931,27 +1927,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>doiejaehyun</t>
+          <t>prediction_idol</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Seoul, Republic of Korea</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44661.98077546297</v>
+        <v>44662.89210648148</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>Doyoungs NCT current romantic relationships started with a reply to his Insta story His gf is a celebrity too</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1960,7 +1956,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193166391848961</t>
+          <t>https://twitter.com/twitter/statuses/1513523423481413635</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1968,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mssm_misosmile</t>
+          <t>nwin_7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>south korea</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44661.9806712963</v>
+        <v>44662.89194444445</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AR Ticket Resonance โดยอง การ์ดคือใบในรูปนะคะ ฿ ไม่ใช่ โดยองอุ้มแก้ม ดูเพิ่มเติมได้ใน link</t>
+          <t>11422EveningWinWin DongSiChengWayVNCT NCT127</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2001,7 +1997,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193129188667393</t>
+          <t>https://twitter.com/twitter/statuses/1513523364442550273</t>
         </is>
       </c>
     </row>
@@ -2013,20 +2009,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mssm_misosmile</t>
+          <t>masharena_</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Somewhere</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44661.98052083333</v>
+        <v>44662.89192129629</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>โปสการ์ด จองอู A POSTER จอห์นนี่ sticky ver รับธนาคารwallet ค่าส่ง ฿฿ตลาดนัดnct</t>
+          <t>My dicon is here NCT127 NCT DOYOUNG JOHNNY</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2042,7 +2038,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193076818604033</t>
+          <t>https://twitter.com/twitter/statuses/1513523356775026688</t>
         </is>
       </c>
     </row>
@@ -2054,24 +2050,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PoR_Wipada</t>
+          <t>nctftw</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">You are my one and only </t>
+          <t>waiting for xuxi</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44661.98048611111</v>
+        <v>44662.89079861111</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Day amp Night ถ่ายรูปให้กันมั้ยนะ แจโด แจฮยอน โดยอง JAEDO JAEHYUN DOYOUNG NCT</t>
+          <t>went to NatRep SM North EDSA today and look who I met therejaehyunnct127</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2083,7 +2079,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513193061509066752</t>
+          <t>https://twitter.com/twitter/statuses/1513522948254367744</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2091,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mssm_misosmile</t>
+          <t>SweetTy28590173</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2104,11 +2100,11 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44661.98024305556</v>
+        <v>44662.89038194445</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ขายอัลบั้มเปล่า NCT Sticker ไม่มีการ์ด Sticky ver โปสการ์ดจอห์น สตกแฮชาน ฿ Sticky ver</t>
+          <t>Hallo semua Saat ini aku lagi butuh koresponden NCTzen untuk survey penelitian skripsi akuKriteria yang dicari</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2124,7 +2120,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513192976050454529</t>
+          <t>https://twitter.com/twitter/statuses/1513522796613484547</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2132,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>nctapsbzlap</t>
+          <t>zenitxii</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2145,27 +2141,27 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44661.97972222222</v>
+        <v>44662.88944444444</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>nct nct nctdream glitchmode</t>
+          <t>พี่จีซองกับจองอูก็หล่อไม่แพ้ใครนะNCTDREAM NCT NCT JISUNG JUNGWOO</t>
         </is>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513192785952010242</t>
+          <t>https://twitter.com/twitter/statuses/1513522457033908225</t>
         </is>
       </c>
     </row>
@@ -2177,27 +2173,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0805cartt</t>
+          <t>NCT127_PH</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">minor </t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44661.97961805556</v>
+        <v>44662.88934027778</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>PHOTO 220411 jiwonsteins Instagram Story Update with TAEYONG NCT NCT127 NCTsmtown127</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2206,7 +2202,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513192749113110529</t>
+          <t>https://twitter.com/twitter/statuses/1513522418715095047</t>
         </is>
       </c>
     </row>
@@ -2218,20 +2214,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cafe_45St</t>
+          <t>Gloriaera1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>청주시 상당구 산성로 45</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44661.97685185185</v>
+        <v>44662.88788194444</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NCTDREAM NCT BTS THEBOYZ SEVENTEEN MONSTAX StrayKids</t>
+          <t>Wtb wtb jaehyun wtb jeno wtb sehun dibawah iniWtb ready ina or kr its oke not in rush WTB NCT NCTDREAM</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2242,12 +2238,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513191744686690305</t>
+          <t>https://twitter.com/twitter/statuses/1513521893319479301</t>
         </is>
       </c>
     </row>
@@ -2259,20 +2255,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SE0LA_94</t>
+          <t>al6snimmo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>rcbyf</t>
+          <t>Anywhere,Everywhere@SW</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44661.97619212963</v>
+        <v>44662.88761574074</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>winterkimlvr happy 4 years with doieNCT NCT127 DOYOUNG</t>
+          <t>NCT NCT Universe ID CARD PHOTO CARD SET</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2288,7 +2284,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513191508190539777</t>
+          <t>https://twitter.com/twitter/statuses/1513521794560716805</t>
         </is>
       </c>
     </row>
@@ -2300,27 +2296,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bbydvyoung</t>
+          <t>zenitxii</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Multistan/ 19 yrs/ fan account</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44661.97615740741</v>
+        <v>44662.88712962963</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>220410 do0nct Instagram post NCT127 DOYOUNG</t>
+          <t>introduce my nctNCTDREAM NCT127 NCT JISUNG DOYOUNG RENJUN XIAOJUN JUNGWOO JAEMIN YUTA YONGHO TAEYONG</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2329,7 +2325,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513191494286462982</t>
+          <t>https://twitter.com/twitter/statuses/1513521619456577539</t>
         </is>
       </c>
     </row>
@@ -2341,27 +2337,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dreamiere</t>
+          <t>Suh_updateBr</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>she/her • 20</t>
+          <t>Brazilian Johfam 🇧🇷</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44661.97596064815</v>
+        <v>44662.88711805556</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>TRAD Comentrio do Doyoung e Jungwoo na publicao do Johnny no Instagram risadasEu me sinto b</t>
         </is>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2370,7 +2366,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513191424296390659</t>
+          <t>https://twitter.com/twitter/statuses/1513521612863254532</t>
         </is>
       </c>
     </row>
@@ -2382,20 +2378,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SE0LA_94</t>
+          <t>Joh3y95</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>rcbyf</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44661.97591435185</v>
+        <v>44662.88701388889</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doieNCT NCT127 DOYOUNG</t>
+          <t>johnny NCT nct</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2411,7 +2407,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513191406570934283</t>
+          <t>https://twitter.com/twitter/statuses/1513521575630356484</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2419,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>vvsbn120</t>
+          <t>Saviralsmn_</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2432,11 +2428,11 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44661.97572916667</v>
+        <v>44662.88668981481</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OP saw nct jungwoo in seoul forest JUNGWOO NCT</t>
+          <t>My angel really wishing he could see this marklee nct127 nctfanart artist fanart angel sketch</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2452,7 +2448,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513191340569665536</t>
+          <t>https://twitter.com/twitter/statuses/1513521457691000834</t>
         </is>
       </c>
     </row>
@@ -2464,27 +2460,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>annyeongjinnie</t>
+          <t>onyourshi_min</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t xml:space="preserve"> 𝑵𝑪𝑻𝒄𝒊𝒕𝒚,ot23</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44661.97476851852</v>
+        <v>44662.88524305556</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>MARK IG update spring day with MARKLEE he is so cuteSMTOWNGLOBAL MARK</t>
         </is>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2493,7 +2489,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513190988604669952</t>
+          <t>https://twitter.com/twitter/statuses/1513520937282555906</t>
         </is>
       </c>
     </row>
@@ -2505,31 +2501,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>haotobns</t>
+          <t>NCT127_archive_</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">97z she/her
-sold = deleted
-changbin. howoo. minwon.
-yuta. haechan. yoon.
-mlist on link </t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44661.97431712963</v>
+        <v>44662.88484953704</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2538,7 +2530,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513190828243501058</t>
+          <t>https://twitter.com/twitter/statuses/1513520792646356997</t>
         </is>
       </c>
     </row>
@@ -2550,27 +2542,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>baekndoiehauls</t>
+          <t>NCT127Union</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">she!her | sold/found = 🗑 </t>
+          <t>Est. July 27, 2019</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44661.97347222222</v>
+        <v>44662.88280092592</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>220411 onyourmark Instagram Update 2fleetingNCT127 MARK NCTsmtown127</t>
         </is>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2579,7 +2571,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513190520285065220</t>
+          <t>https://twitter.com/twitter/statuses/1513520052091310091</t>
         </is>
       </c>
     </row>
@@ -2591,27 +2583,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>michi_t725</t>
+          <t>NCT127Union</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>取引経験300↑</t>
+          <t>Est. July 27, 2019</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44661.97269675926</v>
+        <v>44662.88271990741</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NCT ND TOUR NEO CITY FC orDM</t>
+          <t>220411 onyourmark Instagram Update fleetingNCT127 MARK NCTsmtown127</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2620,7 +2612,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513190239166418947</t>
+          <t>https://twitter.com/twitter/statuses/1513520019526750212</t>
         </is>
       </c>
     </row>
@@ -2632,27 +2624,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>monstray6zen</t>
+          <t>Czennierabbitdo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>rizal</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44661.97265046297</v>
+        <v>44662.8825</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>TAEYONG from jiwonsteins insTAEYONG NCT NCT NCTsmtown</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2661,7 +2653,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513190224351748104</t>
+          <t>https://twitter.com/twitter/statuses/1513519939478757376</t>
         </is>
       </c>
     </row>
@@ -2673,27 +2665,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>eutatsuki</t>
+          <t>taeyongstyles</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>not a minor ☻  spam a lot!</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44661.97261574074</v>
+        <v>44662.8815625</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>Astro amp Fish in his Necklace NCT NCT127 TAEYONG</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2702,7 +2694,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513190210913198080</t>
+          <t>https://twitter.com/twitter/statuses/1513519602487406595</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2706,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>whcin7</t>
+          <t>o1_qo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2723,18 +2715,18 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44661.97162037037</v>
+        <v>44662.88146990741</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NCT ND TOUR NEO CITYJAPAN THE LINK DM</t>
+          <t>NCT ND TOUR NEO CITYJAPAN THE LINK</t>
         </is>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2743,7 +2735,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513189849851121665</t>
+          <t>https://twitter.com/twitter/statuses/1513519567628562436</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2747,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>parkjayar13</t>
+          <t>_LT01NCTB</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2764,18 +2756,18 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44661.970625</v>
+        <v>44662.88138888889</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT instagram Taeyong</t>
         </is>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2784,7 +2776,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513189487098048514</t>
+          <t>https://twitter.com/twitter/statuses/1513519540692729859</t>
         </is>
       </c>
     </row>
@@ -2796,20 +2788,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>kmy_luv</t>
+          <t>mcdy9621bot</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>bns acc more on buying</t>
+          <t>FRB_Free/JPN/fake acc</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44661.9696412037</v>
+        <v>44662.88090277778</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>''TAEIL JAEHYUN DOYOUNG WINWIN JOHNNY NCT NCT VyrlNCTsmtown</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2825,7 +2817,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513189130637017089</t>
+          <t>https://twitter.com/twitter/statuses/1513519361725648896</t>
         </is>
       </c>
     </row>
@@ -2837,27 +2829,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ivthbyz</t>
+          <t>ldoshh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">(+63) she/her </t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44661.96952546296</v>
+        <v>44662.88074074074</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>gscu xx NCT DOYOUNG</t>
         </is>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2866,7 +2858,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513189089826115585</t>
+          <t>https://twitter.com/twitter/statuses/1513519302879883267</t>
         </is>
       </c>
     </row>
@@ -2878,27 +2870,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Homdokmai_</t>
+          <t>theppcm_</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Haechan</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44661.96909722222</v>
+        <v>44662.88055555556</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TAEYONG Wonstein LoveTheory NCT NCT</t>
+          <t>NCT REGULARIRREGULARเลือก VER REGULARIRREGULAR VERไม่มีโปสเตอร์ราคาบั้มละ ฿ค่าจัดส่ง ฿ บั้มถัด</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2907,7 +2899,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513188936331722753</t>
+          <t>https://twitter.com/twitter/statuses/1513519235678543876</t>
         </is>
       </c>
     </row>
@@ -2919,36 +2911,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mrklluvr</t>
+          <t>jeong_yunotime</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>she / her</t>
+          <t xml:space="preserve">she/her | sm stan | rcbyf | </t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44661.96895833333</v>
+        <v>44662.87981481481</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>Jaehyuns smile IS therapy JAEHYUN NCT NCT127NCTsmtown127</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513188885903290369</t>
+          <t>https://twitter.com/twitter/statuses/1513518967276863493</t>
         </is>
       </c>
     </row>
@@ -2960,20 +2952,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>eriyyaaaa</t>
+          <t>NCT127_CENTER</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0’3 | waiting for bbh</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44661.96893518518</v>
+        <v>44662.87979166667</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>220411 jiwonstein Instagram story update with TAEYONGNCT127</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2989,7 +2981,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513188877334290441</t>
+          <t>https://twitter.com/twitter/statuses/1513518958984704001</t>
         </is>
       </c>
     </row>
@@ -3001,7 +2993,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cris__jrj97</t>
+          <t>uho8uw</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3010,11 +3002,11 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44661.96875</v>
+        <v>44662.87954861111</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NCT NCT NCTU NCTDREAM JAEHYUN</t>
+          <t>NCT ND TOUR NEO CITYJAPAN THE LINKNCTzen JAPAN</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3030,7 +3022,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513188810061844489</t>
+          <t>https://twitter.com/twitter/statuses/1513518871927754754</t>
         </is>
       </c>
     </row>
@@ -3042,27 +3034,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>keulaeoscartt</t>
+          <t>___ty71_</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Laguna</t>
+          <t>y.</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44661.96872685185</v>
+        <v>44662.8777662037</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT TAEYONG</t>
         </is>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3071,7 +3063,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513188799240568840</t>
+          <t>https://twitter.com/twitter/statuses/1513518223769337856</t>
         </is>
       </c>
     </row>
@@ -3083,20 +3075,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ishithv</t>
+          <t>PNongshop</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">she/her   ults bts, txt, enha, kep1er, ive, nct    dont retweet my tweets    💤 = sleeping  </t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44661.96782407408</v>
+        <v>44662.87695601852</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>พร้อมส่ง Dicon nct การ์ดเดี่ยว ใบ ยูนิต ใบยูตะ จอห์นนี่ เมมละ ฿ รวมส่งbinder</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3112,7 +3104,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513188473389281285</t>
+          <t>https://twitter.com/twitter/statuses/1513517932097069063</t>
         </is>
       </c>
     </row>
@@ -3124,27 +3116,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>taeyongteodia</t>
+          <t>NCT__Indonesia</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>w7yv</t>
+          <t>New Account of @NCT_INDONESIA</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44661.96734953704</v>
+        <v>44662.87690972222</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>STATION TAEYONG X Love Theory PM KSTTAEYONG Wonstein LoveTheory NCT</t>
+          <t>PIC 220411 jiwonstein Instagram Story dengan TAEYONG taeoxonctLove theory</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3153,7 +3145,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513188299782897672</t>
+          <t>https://twitter.com/twitter/statuses/1513517914074189824</t>
         </is>
       </c>
     </row>
@@ -3165,27 +3157,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pjsungcart</t>
+          <t>NCT_TAEYONGPH</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>19 she/her | rizal</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44661.96681712963</v>
+        <v>44662.87675925926</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>PHOTO 220411 jiwonsteins Instagram Story Update NCT NCT127 TAEYONG TY</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3194,7 +3186,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513188109898293255</t>
+          <t>https://twitter.com/twitter/statuses/1513517861960302594</t>
         </is>
       </c>
     </row>
@@ -3206,27 +3198,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>taeil_3</t>
+          <t>MIN_RABBIT_MOON</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>YOKOHAMA</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44661.96560185185</v>
+        <v>44662.87591435185</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NCT ND TOUR NEO CITYJAPAN THE LINK NCTzen JAPANline</t>
+          <t>'' '' '' '' wwwTAEILNCT</t>
         </is>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3235,7 +3227,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513187670284910592</t>
+          <t>https://twitter.com/twitter/statuses/1513517555918712836</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3239,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mokleeee</t>
+          <t>JohnnySuhBrazil</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3256,18 +3248,18 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44661.9655324074</v>
+        <v>44662.8755787037</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>IG Jungwoo comentou na ltima postagem do Johnny no instagramParece bom</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3276,7 +3268,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513187644284731398</t>
+          <t>https://twitter.com/twitter/statuses/1513517433172156417</t>
         </is>
       </c>
     </row>
@@ -3288,20 +3280,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Yuzuhiro16</t>
+          <t>JohnnySuhBrazil</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Exo Planet</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44661.96519675926</v>
+        <v>44662.87511574074</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Forgiveness if its late just went to the toilet NSD NCTzenSelcaDay NCT NCT127 NCTDREAM MARK</t>
+          <t>IG Doyoung comentou na ltima postagem do Johnny no instagramkkkkkkkkkkkkkkkkkkkkkkkkk</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3312,12 +3304,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513187520854433792</t>
+          <t>https://twitter.com/twitter/statuses/1513517263399395330</t>
         </is>
       </c>
     </row>
@@ -3329,27 +3321,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PoR_Wipada</t>
+          <t>kdyhours</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">You are my one and only </t>
+          <t>도영</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44661.96498842593</v>
+        <v>44662.87502314815</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>น้องโดยองกับ นิ้ว โดยอง DOYOUNG NCT</t>
+          <t>DOYOUNG NCT</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3358,7 +3350,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513187445096927234</t>
+          <t>https://twitter.com/twitter/statuses/1513517233489649664</t>
         </is>
       </c>
     </row>
@@ -3370,27 +3362,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Verenagustine23</t>
+          <t>tyonghourly</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ALL AROUND THE WORLD ♥</t>
+          <t>all credits to original owners</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44661.96493055556</v>
+        <v>44662.87501157408</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Thankyou baby jungwoo jungwoo jungwoofansign naturepublicfansign nct127</t>
+          <t>TAEYONG NCT NCT NCT SUPERM</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3399,7 +3391,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513187425648267265</t>
+          <t>https://twitter.com/twitter/statuses/1513517228003454979</t>
         </is>
       </c>
     </row>
@@ -3411,27 +3403,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>_LT01NCTB</t>
+          <t>SM_NCT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>WORLDWIDE</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44661.9647337963</v>
+        <v>44662.87450231481</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>anationNCTNCT NCT TAEYONG NCTclusive</t>
+          <t>220411 jiwonsteins Instagram story update with TAEYONGNCT NCT127</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3440,7 +3432,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513187353464283143</t>
+          <t>https://twitter.com/twitter/statuses/1513517043668373507</t>
         </is>
       </c>
     </row>
@@ -3452,27 +3444,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>shaxiaos</t>
+          <t>sayakichi26</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+63 | she/her (17)</t>
+          <t>日本 東京</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44661.9643287037</v>
+        <v>44662.87388888889</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT NCT NCT NCT</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3481,7 +3473,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513187208244887556</t>
+          <t>https://twitter.com/twitter/statuses/1513516821558665218</t>
         </is>
       </c>
     </row>
@@ -3493,28 +3485,24 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>injeolmibag</t>
+          <t>JohnnySuhBrazil</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ia coz of acads,
-but DMs are open
-read pinned byt!
-for 해찬 and 정원 ♡
-not a minor, she/they</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44661.9640625</v>
+        <v>44662.87357638889</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>JOHNNYGRAM Atualizao do Johnny no Instagram Stress n donct e stress n sugaringcand</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3526,7 +3514,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513187109426786306</t>
+          <t>https://twitter.com/twitter/statuses/1513516706831941639</t>
         </is>
       </c>
     </row>
@@ -3538,24 +3526,24 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>lustroustzuyu</t>
+          <t>JohnnySuhBrazil</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>cls</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44661.96395833333</v>
+        <v>44662.87346064814</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>JOHNNYGRAM Atualizao do Johnny no Instagram Stress n donct e stress n sugaringcand</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3567,7 +3555,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513187074467254276</t>
+          <t>https://twitter.com/twitter/statuses/1513516664041652231</t>
         </is>
       </c>
     </row>
@@ -3579,27 +3567,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>leighchenle</t>
+          <t>JohnnySuhBrazil</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>kwangya</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44661.96349537037</v>
+        <v>44662.87342592593</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>JOHNNYGRAM Atualizao do Johnny no Instagram Stress n donct e stress n sugaringcand</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3608,7 +3596,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186904186916869</t>
+          <t>https://twitter.com/twitter/statuses/1513516651991506945</t>
         </is>
       </c>
     </row>
@@ -3620,27 +3608,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>yoitbns</t>
+          <t>iconickpits</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>turn the notif on!</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44661.96349537037</v>
+        <v>44662.87222222222</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>Doyoung NCT</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3649,7 +3637,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186903578738688</t>
+          <t>https://twitter.com/twitter/statuses/1513516215574147072</t>
         </is>
       </c>
     </row>
@@ -3661,27 +3649,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jadyang</t>
+          <t>sayakichi26</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>日本 東京</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44661.96334490741</v>
+        <v>44662.87193287037</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT NCT</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3690,7 +3678,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186850344947714</t>
+          <t>https://twitter.com/twitter/statuses/1513516113887342592</t>
         </is>
       </c>
     </row>
@@ -3702,27 +3690,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>xiuscash</t>
+          <t>in_kyung0213</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>turn off my rts</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44661.96303240741</v>
+        <v>44662.86987268519</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>DM nct nct nctdream</t>
         </is>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3731,7 +3719,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186738771877896</t>
+          <t>https://twitter.com/twitter/statuses/1513515366764642305</t>
         </is>
       </c>
     </row>
@@ -3743,20 +3731,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>kkimcartx</t>
+          <t>mmmm_mizutamari</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>was kxuukart</t>
+          <t>tokyo</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44661.96299768519</v>
+        <v>44662.86981481482</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>NCT UNIVERSELet's Play Ball NCT U</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3772,7 +3760,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186726701060099</t>
+          <t>https://twitter.com/twitter/statuses/1513515343876014082</t>
         </is>
       </c>
     </row>
@@ -3784,27 +3772,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Suh_updateBr</t>
+          <t>nctyzenbase</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Brazilian Johfam 🇧🇷</t>
+          <t>Indonesia 🇮🇩</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44661.96246527778</v>
+        <v>44662.86916666666</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRAD Nature Republic Indonsia Fansign Johnny e JohfamOp recebeu seu Postcard autografadoTe vejo em Hogwart</t>
+          <t>127 NEWS 220411 jiwonstein Instagram Story Update bersama TAEYONG</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3813,7 +3801,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186531950927879</t>
+          <t>https://twitter.com/twitter/statuses/1513515108643012610</t>
         </is>
       </c>
     </row>
@@ -3825,29 +3813,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>10VELYMAILS</t>
+          <t>ROSEHOUSE_</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>lj 
-for tenjaem
-comfy with any terms!</t>
+          <t>TAEYONG</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44661.96246527778</v>
+        <v>44662.86873842592</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>jiwonstein TAEYONG NCT NCT</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3856,7 +3842,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186531292286981</t>
+          <t>https://twitter.com/twitter/statuses/1513514954221318147</t>
         </is>
       </c>
     </row>
@@ -3868,27 +3854,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JHyunSanity</t>
+          <t>bubble___t</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>แอคสำรอง @bubbletstore</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44661.96241898148</v>
+        <v>44662.86836805556</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>พร้อมส่ง ครีมแจฮยอน CORTHE MOISTURERX RECHARGING ml ฿</t>
         </is>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3897,7 +3883,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186517178413056</t>
+          <t>https://twitter.com/twitter/statuses/1513514819076653064</t>
         </is>
       </c>
     </row>
@@ -3909,36 +3895,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>chikxnwins</t>
+          <t>moonwingcargo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>🇵🇭</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44661.96228009259</v>
+        <v>44662.8680787037</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>พร้อมส่ง NCT DICON PHOTOCARD CUSTOM BOOKราคา ฿ รวมส่ง JampTสนใจ DM หรือ Line moonwingcargo</t>
         </is>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186463445237763</t>
+          <t>https://twitter.com/twitter/statuses/1513514714164527105</t>
         </is>
       </c>
     </row>
@@ -3950,27 +3936,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>chaeyqtiee</t>
+          <t>Suh_updateBr</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>🇵🇭</t>
+          <t>Brazilian Johfam 🇧🇷</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44661.96195601852</v>
+        <v>44662.8675</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>JOHNNY NCT</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3979,7 +3965,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186348143767554</t>
+          <t>https://twitter.com/twitter/statuses/1513514505694810131</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3977,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jkkcutiest</t>
+          <t>mssm_misosmile</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4000,11 +3986,11 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44661.96189814815</v>
+        <v>44662.86616898148</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>การ์ด nature republic cica christmas ver บางใบตรงมุมมีตำหนิเล็กน้อย แทอิลแทยงยูตะจองอูแฮชาน รับธนา</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4015,12 +4001,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513186327939805184</t>
+          <t>https://twitter.com/twitter/statuses/1513514023714979840</t>
         </is>
       </c>
     </row>
@@ -4032,23 +4018,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ryucentre</t>
+          <t>mssm_misosmile</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>she/her ☆ﾐ 18, rizal
-rcbyt! no pqrts
-🗑 = not pushed thru
-💬 off = sold/traded</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44661.96085648148</v>
+        <v>44662.86605324074</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>การ์ดโดยองแจฮยอน Card wallet AR Ticket ดูเพิ่มเติมได้ใน link DY JH</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4064,7 +4047,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185949332566019</t>
+          <t>https://twitter.com/twitter/statuses/1513513982430441474</t>
         </is>
       </c>
     </row>
@@ -4076,20 +4059,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jenojungsc</t>
+          <t>mssm_misosmile</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">ph 🇵🇭 | @inkartemis </t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44661.96085648148</v>
+        <v>44662.86592592593</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>czenshire happy 4 years with doie NCT NCT127 DOYOUNG</t>
+          <t>AR Ticket Resonance โดยอง การ์ดคือใบในรูปนะคะ ฿ ไม่ใช่ โดยองอุ้มแก้ม ดูเพิ่มเติมได้ใน link</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4105,7 +4088,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185949324550151</t>
+          <t>https://twitter.com/twitter/statuses/1513513933709389824</t>
         </is>
       </c>
     </row>
@@ -4117,20 +4100,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>piepoxq</t>
+          <t>flankdesign_12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>kwangya</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44661.960625</v>
+        <v>44662.86581018518</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>STATION TAEYONG X Love Theory PM KST ลงใหม่อีกรอบTAEYONG Wonstein</t>
+          <t>Theboyz NCT NCTDREAM ITZY IVE</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4146,7 +4129,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185864230539268</t>
+          <t>https://twitter.com/twitter/statuses/1513513894752690179</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4141,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>phiwbubu</t>
+          <t>mssm_misosmile</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4167,11 +4150,11 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44661.95953703704</v>
+        <v>44662.86577546296</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>BandwagonAsia NCTsmtown NCTsmtown SMTOWNGLOBAL SMTOWNIdn SMTOWNUSA STATION TAEYONG X Wonst</t>
+          <t>โปสการ์ด จองอู A POSTER จอห์นนี่ sticky ver รับธนาคารwallet ค่าส่ง ฿฿ตลาดนัดnct</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4187,7 +4170,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185470469271554</t>
+          <t>https://twitter.com/twitter/statuses/1513513878793367554</t>
         </is>
       </c>
     </row>
@@ -4199,20 +4182,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>WEXO4ever</t>
+          <t>mssm_misosmile</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Florida, USA</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44661.95939814814</v>
+        <v>44662.86546296296</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Cherry Bomb becomes NCT127s first song to surpass 100 million streams on Spotify</t>
+          <t>ขายอัลบั้มเปล่า NCT Sticker ไม่มีการ์ด Sticky ver โปสการ์ดจอห์น สตกแฮชาน ฿ Sticky ver</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4223,12 +4206,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185419508260866</t>
+          <t>https://twitter.com/twitter/statuses/1513513766612533249</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4223,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bxuguet</t>
+          <t>Tyroseyong</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4249,27 +4232,27 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44661.95922453704</v>
+        <v>44662.86525462963</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>กล้องฟิล์มคอมแพค กล้องฟิล์ม กล้องมือสอง กล้องฟิล์มมือสองราคาถูก กล้องดิจิตอลมือสอง กล้องฟิล์มมือสอง TAEYONG</t>
+          <t>NCTsmtown STATION TAEYONG X Love Theory PM KSTTAEYONG Wonstein</t>
         </is>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185358602993667</t>
+          <t>https://twitter.com/twitter/statuses/1513513691836301312</t>
         </is>
       </c>
     </row>
@@ -4281,27 +4264,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jsuhjpgs</t>
+          <t>Koreawelle</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">ctto. </t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44661.95834490741</v>
+        <v>44662.86458333334</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>JOHNNY NCT</t>
+          <t>Das neue Lied Love Theory von TAEYONG NCT NCT amp Wonstein erscheint am April</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4310,7 +4293,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185039806214144</t>
+          <t>https://twitter.com/twitter/statuses/1513513447618580481</t>
         </is>
       </c>
     </row>
@@ -4322,36 +4305,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>kdyhours</t>
+          <t>anpinmanz</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>도영</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44661.95833333334</v>
+        <v>44662.86373842593</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DOYOUNG NCT</t>
+          <t>Last of the New Tote Bag collection 33 NCT Will be listed on my shop from 18 AprilNCT127 NCTDREAM WayV</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185035389526016</t>
+          <t>https://twitter.com/twitter/statuses/1513513140864299019</t>
         </is>
       </c>
     </row>
@@ -4363,27 +4346,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>tyonghourly</t>
+          <t>Tyroseyong</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>all credits to original owners</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44661.95833333334</v>
+        <v>44662.86289351852</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TAEYONG NCT NCT NCT SUPERM</t>
+          <t>NCTsmtown STATION TAEYONG X Love Theory PM KSTTAEYONG Wonstein</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4392,7 +4375,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185033443442691</t>
+          <t>https://twitter.com/twitter/statuses/1513512835283890185</t>
         </is>
       </c>
     </row>
@@ -4404,27 +4387,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jenovelvety</t>
+          <t>anass_nabell</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t xml:space="preserve">EXO planet </t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44661.95826388889</v>
+        <v>44662.85924768518</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>NCTzenSelcaDay NSD JENO NCT NCT127 NCTDREAM</t>
+          <t>NCTsmtown STATION TAEYONG X Wonstein 'Love Theory' ROOM TOUR Vlog STATION TAEYONG X</t>
         </is>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4433,7 +4416,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513185007916965892</t>
+          <t>https://twitter.com/twitter/statuses/1513511514833317892</t>
         </is>
       </c>
     </row>
@@ -4445,20 +4428,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>taeyongteodia</t>
+          <t>anass_nabell</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>w7yv</t>
+          <t xml:space="preserve">EXO planet </t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44661.95747685185</v>
+        <v>44662.85901620371</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>STATION TAEYONG X Love Theory PM KSTTAEYONG Wonstein LoveTheory NCT</t>
+          <t>NCTsmtown STATION TAEYONG X Love Theory PM KSTTAEYONG Wonstein LoveTheory NCT NCT</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -4474,7 +4457,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513184725971574788</t>
+          <t>https://twitter.com/twitter/statuses/1513511431911919617</t>
         </is>
       </c>
     </row>
@@ -4486,27 +4469,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ii05o6</t>
+          <t>Suh_updateBr</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Brazilian Johfam 🇧🇷</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44661.956875</v>
+        <v>44662.85898148148</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>NCT ND TOUR NEO CITYJAPAN THE LINK</t>
+          <t>JOHNNY NCT</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4515,7 +4498,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513184504198086656</t>
+          <t>https://twitter.com/twitter/statuses/1513511419408441349</t>
         </is>
       </c>
     </row>
@@ -4527,20 +4510,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ChocomacaE</t>
+          <t>anass_nabell</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t xml:space="preserve">EXO planet </t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44661.95667824074</v>
+        <v>44662.85894675926</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>NCT YUTA ampSHOTARO YUTASHOTARO from NCT NCT NCT</t>
+          <t>NCTsmtown STATION TAEYONG X Love Theory PM KSTTAEYONG Wonstein LoveTheory NCT NCT</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -4556,7 +4539,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513184433603448836</t>
+          <t>https://twitter.com/twitter/statuses/1513511404850278401</t>
         </is>
       </c>
     </row>
@@ -4568,27 +4551,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ChocomacaE</t>
+          <t>Suh_updateBr</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Brazilian Johfam 🇧🇷</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44661.9565625</v>
+        <v>44662.85894675926</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>NCT YUTA ampSHOTARO YUTA SHOTARO from NCTNCT NCT</t>
+          <t>JOHNNY NCT</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -4597,7 +4580,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://twitter.com/twitter/statuses/1513184393703043076</t>
+          <t>https://twitter.com/twitter/statuses/1513511404149559304</t>
         </is>
       </c>
     </row>
